--- a/OWL2NL@ClassVerbalization.xlsx
+++ b/OWL2NL@ClassVerbalization.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="10995" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="10995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -641,7 +641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -744,7 +746,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -833,7 +837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
